--- a/docs/TDSAdmin-TestCases.xlsx
+++ b/docs/TDSAdmin-TestCases.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rlevy/air/bitbucket/tdsadmindev/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\temp_ptereshchenko\Documents\SBAC Test Registration\Task17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33400" windowHeight="16340"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="16152" windowHeight="4956"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -17,23 +17,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Cases'!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="198">
   <si>
     <t>Test ID #</t>
   </si>
@@ -97,10 +94,6 @@
     <t>1 Log in using account with only TDS Admin read role
 2 Execute different search requests
 3 Execute all stored procedures</t>
-  </si>
-  <si>
-    <t>1 Log in using account with TDS Administrator role
-2 All testcases below should be executed using this user</t>
   </si>
   <si>
     <t>User is able to access all component functionality and don't get any permissions error in process of executing test cases below</t>
@@ -184,9 +177,6 @@
   </si>
   <si>
     <t>Reset reported test</t>
-  </si>
-  <si>
-    <t>Restore test that was reseted</t>
   </si>
   <si>
     <t>Extend opportunity grace period simple</t>
@@ -223,21 +213,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1 Take partially test in TDS.
-2 Execute invalidate for that opportunity in TDSAdmin
-3 Execute reset for same opportuinity
-4 Check in DB that status become reset and in UI opportunity count is showing same data as in step 1.
-</t>
-  </si>
-  <si>
     <t>Reopen expired opportunity</t>
-  </si>
-  <si>
-    <t>1 Start taking tst in TDS
-2 Pause a test
-3 Expire test by first finding opportunity HEX using this query "select hex(op._key), op.* FROM session.testopportunity op where datechanged like '2016%' and testeeid = '405' order by testeeid; " with updated date and testeeid; and then using this query "call setopportunitystatus(0x965337CFC2D74770918C17519D92E129, 'expired', 0, null, null);" with replaced HEX
-4 Verify that test become expired in DB and in student interface student can only start next opportunity
-5 Use Reopen procedure</t>
   </si>
   <si>
     <t>Student can resume taking initial opportunity</t>
@@ -279,16 +255,9 @@
 3 Execute extend opp expiration procedure for this opportunity</t>
   </si>
   <si>
-    <t>expirefrom should increment on muber sepcified in TDSAdmin</t>
-  </si>
-  <si>
     <t>1 Partially take test in TDS
 2 Expire test by first finding opportunity HEX using this query "select hex(op._key), op.* FROM session.testopportunity op where datechanged like '2016%' and testeeid = '405' order by testeeid; " with updated date and testeeid; and then using this query "call setopportunitystatus(0x965337CFC2D74770918C17519D92E129, 'expired', 0, null, null);" with replaced HEX
 3 Execute extend opp expiration procedure for this opportunity</t>
-  </si>
-  <si>
-    <t>Test should become paused not expired,
-expirefrom should increment on muber sepcified in TDSAdmin</t>
   </si>
   <si>
     <t>Change segment permeability</t>
@@ -306,38 +275,7 @@
     <t>Application should show that procedure failed</t>
   </si>
   <si>
-    <t>Student can go back and review/change responses for items in first segment untill he will try to navigate to second segment. After that he should not be able to go back</t>
-  </si>
-  <si>
-    <t>1 Find test that have 2 segments, and configure first segment to be not permeable
-2 Start taking a test as a student and pause it at the lsat question.
-3 Execute procedure to change permeability for current opportunity with parameter "segment"
-4 Log in as a same student and verify that he land on a last item of first segment</t>
-  </si>
-  <si>
-    <t>1 Find test that have 2 segments, and configure first segment to be not permeable
-2 Start taking a test as a student and pause it at the lsat question.
-3 Execute procedure to change permeability for current opportunity with parameter "paused"
-4 Log in as a same student and verify that he land on a last item of first segment</t>
-  </si>
-  <si>
-    <t>1 Find test that have 2 segments, and configure first segment to be not permeable
-2 Start taking a test as a student and pause it at the lsat question.
-3 Execute procedure to change permeability for current opportunity with parameter "completed"
-4 Log in as a same student and verify that he land on last item of first segment</t>
-  </si>
-  <si>
-    <t>Student can go back and review/change responses for items in first segment and answer items in second segment. Student should be able to review/change all items untill he will pause a test</t>
-  </si>
-  <si>
     <t>Student can go back and review/change responses for items in first segment and answer items in second segment. Student should be able to review/change all items</t>
-  </si>
-  <si>
-    <t>1 Find test that have 2 segments, and configure first segment to be not permeable
-2 Start taking a test as a student and pause it at the lsat question.
-3 Execute procedure to change permeability for current opportunity with parameter "completed"
-4 Execute procedure to change permeability for current opportunity with parameter "completed" and "permeable" parameter as not selected
-5 Log in as a same student and verify that he land on last unswered item</t>
   </si>
   <si>
     <t>Student can not go back to items in segment 1</t>
@@ -362,19 +300,7 @@
 2 Log in TDSA, execute valid search request and wait for specified amount of minutes</t>
   </si>
   <si>
-    <t>2 Any action in UI after timout expires will redirect user to log in page</t>
-  </si>
-  <si>
     <t>Verify that change of timeout parameter in PM will change actual timeout in TDSA</t>
-  </si>
-  <si>
-    <t>1 Go to Program Managementand increase value for timeout parameter (tdsadmin.sessionTimeoutMinutes)
-2 Log in TDSA, execute valid search request and wait for old timeout to expire. 
-3 Execute another search request and wait for updated timeout</t>
-  </si>
-  <si>
-    <t>2 Application will not log user out
-3 Any action in UI after timout expires will redirect user to log in page</t>
   </si>
   <si>
     <t>UI testing</t>
@@ -412,12 +338,6 @@
   <si>
     <t>1 Make sure that TDS DB have variety of opportunities in different statuses (paused, completed, reported…)
 2 Verify that search in TDSA for invalidate opportunity will return all opportunities which don't have value in datedeleted column (user have to enter student ID or session ID in order for search to work)</t>
-  </si>
-  <si>
-    <t>Verify that only reseted opportunity can be restored</t>
-  </si>
-  <si>
-    <t>Verify that only invalidated or reported opportunity can be reseted</t>
   </si>
   <si>
     <t>1 Make sure that TDS DB have variety of opportunities in different statuses (paused, completed, reported…)
@@ -466,13 +386,6 @@
     <t>Verify that reopen opportunity can be applied only to latest opportunity</t>
   </si>
   <si>
-    <t>Verify that Extend opp expiration date can be applied only to expired, paused and started opporunities</t>
-  </si>
-  <si>
-    <t>1 Make sure that TDS DB have variety of opportunities in different statuses (paused, completed, reported…)
-2 Verify that search in TDSA for extend opportunity grace period will return only expired, paused and started opporunities</t>
-  </si>
-  <si>
     <t>Verify that Change segment permeability can be applied only to opportunities for tests that have non permeable segments.</t>
   </si>
   <si>
@@ -499,25 +412,10 @@
     <t>Verify column information Extend Expiration Date</t>
   </si>
   <si>
-    <t>1 Select Procedure dropdown to Extend Extend Expitation Date
-2 Search by existing opportunity's External SSID</t>
-  </si>
-  <si>
     <t>2 Verify that grid have DayIncrement column in addition to basic ones</t>
   </si>
   <si>
-    <t>Verify column information Change Degment Permeability</t>
-  </si>
-  <si>
-    <t>1 Select Procedure dropdown to Change Degment Permeability
-2 Search by existing opportunity's External SSID</t>
-  </si>
-  <si>
     <t>2 Verify that grid have Permeable, Segment name and Restore on columns in addition to basic ones</t>
-  </si>
-  <si>
-    <t>1 Find search criteria where all date columns will have information 
-2 Verify that when user hover ower date in these cells time tooltip appear</t>
   </si>
   <si>
     <t>Log in using non-existing account or with wrong email or password</t>
@@ -532,6 +430,354 @@
   <si>
     <t>1 Make sure that TDS DB has a variety of opportunities in different statuses (paused, completed, reported…)
 2 Verify that search in TDSA for reset opportunity will return only opportunities with status invalidated or reported (user have to enter student ID or session ID in order for search to work)</t>
+  </si>
+  <si>
+    <t>API testing</t>
+  </si>
+  <si>
+    <t>Get security token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any API request except this one requires security token. Token can be used several times but have expiration time
+</t>
+  </si>
+  <si>
+    <t>getOpportunities</t>
+  </si>
+  <si>
+    <t>1 Install API management application (Postman recommended) 
+2 Use TDSAdmin document to get structure and parameters for API requests</t>
+  </si>
+  <si>
+    <t>1 Make sure that TDS DB have variety of opportunities in different statuses (paused, completed, reported…
+2 Execute correct get API request for all 7 different procedures
+3 Execute API with missing or misspelled required parameter (in header)
+4 Execute API with old or wrong token
+5 Execute API with wrong session or student ID</t>
+  </si>
+  <si>
+    <t>2 Opportunities with parameters appear (check "Pretty" tab in Postman)
+3 Error message about missing parameters appear
+4 Error message about invalid token appear
+5 API return []</t>
+  </si>
+  <si>
+    <t>invalidateOpportunity</t>
+  </si>
+  <si>
+    <t>restoreOpportunity</t>
+  </si>
+  <si>
+    <t>1 Make sure that TDS DB have variety of opportunities in different statuses (paused, completed, reported…
+2 Execute correct post API request
+3 Execute API with missing or misspelled required parameter (in header)
+4 Execute API with old or wrong token
+5 Execute API with wrong oppID</t>
+  </si>
+  <si>
+    <t>resetOpportunity</t>
+  </si>
+  <si>
+    <t>extendOppGracePeriod</t>
+  </si>
+  <si>
+    <t>reopenOpportunity</t>
+  </si>
+  <si>
+    <t>alterOpportunityExpiration</t>
+  </si>
+  <si>
+    <t>setOpportunitySegmentPerm</t>
+  </si>
+  <si>
+    <t>1 Make sure that TDS DB have variety of opportunities in different statuses (paused, completed, reported…
+2 Execute correct post API request
+3 Execute API with missing or misspelled required parameter (in header)
+4 Execute API with old or wrong token
+5 Execute API with wrong oppID
+6 Execute API with selected sitting 105
+7 Execute API with not existing selected sitting (but inside allowed range)
+8 Execute APIT with wrong doupdate value</t>
+  </si>
+  <si>
+    <t>2 API return success, procedure is executed according to DB or TDS behavior
+3 Error message about missing parameters appear
+4 Error message about invalid token appear
+5 API failed with "no test opportunity matches the opportunity key input value [-----]" message</t>
+  </si>
+  <si>
+    <t>1 Make sure that TDS DB have variety of opportunities in different statuses (paused, completed, reported…
+2 Execute correct post API request
+3 Execute API with missing or misspelled required parameter (in header)
+4 Execute API with old or wrong token
+5 Execute API with wrong oppID
+6 Execute API with dayincrement out of range
+7 Execute API with dayincrement which will not change status of opportunity from expired to paused</t>
+  </si>
+  <si>
+    <t>2 API return success, procedure is executed according to DB or TDS behavior
+3 Error message about missing parameters appear
+4 Error message about invalid token appear
+5 API failed with "no test opportunity matches the opportunity key input value [-----]" message
+6 Error message like in step 3 appear
+7 Error message about not changing status appear</t>
+  </si>
+  <si>
+    <t>1 Make sure that TDS DB have variety of opportunities in different statuses (paused, completed, reported…
+2 Execute correct post API request
+3 Execute API with missing or misspelled required parameter (in header)
+4 Execute API with old or wrong token
+5 Execute API with wrong oppID
+6 Execute API with wrong segment position
+7 Execute APIT with wrong segmentid</t>
+  </si>
+  <si>
+    <t>2 API return success, procedure is executed according to DB or TDS behavior
+3 Error message about missing parameters appear
+4 Error message about invalid token appear
+5 API failed with "no test opportunity matches the opportunity key input value [-----]" message
+6 Error "no such test segment" appear
+7 Error as in step 6 appear</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>1 Log in using account with TDS Administrator role
+2 All test cases below should be executed using this user</t>
+  </si>
+  <si>
+    <t>1 Select Procedure dropdown to Extend  Expiration Date
+2 Search by existing opportunity's External SSID</t>
+  </si>
+  <si>
+    <t>Verify column information Change Segment Permeability</t>
+  </si>
+  <si>
+    <t>1 Select Procedure dropdown to Change Segment Permeability
+2 Search by existing opportunity's External SSID</t>
+  </si>
+  <si>
+    <t>1 Find search criteria where all date columns will have information 
+2 Verify that when user hover over date in these cells time tooltip appear</t>
+  </si>
+  <si>
+    <t>2 Any action in UI after timeout expires will redirect user to log in page</t>
+  </si>
+  <si>
+    <t>1 Go to Program Management and increase value for timeout parameter (tdsadmin.sessionTimeoutMinutes)
+2 Log in TDSA, execute valid search request and wait for old timeout to expire. 
+3 Execute another search request and wait for updated timeout</t>
+  </si>
+  <si>
+    <t>2 Application will not log user out
+3 Any action in UI after timeout expires will redirect user to log in page</t>
+  </si>
+  <si>
+    <t>Verify that only invalidated or reported opportunity can be reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Take partially test in TDS.
+2 Execute invalidate for that opportunity in TDSAdmin
+3 Execute reset for same opportunity
+4 Check in DB that status become reset and in UI opportunity count is showing same data as in step 1.
+</t>
+  </si>
+  <si>
+    <t>Verify that only reset opportunity can be restored</t>
+  </si>
+  <si>
+    <t>Restore test that was reset</t>
+  </si>
+  <si>
+    <t>1 Start taking test in TDS
+2 Pause a test
+3 Expire test by first finding opportunity HEX using this query "select hex(op._key), op.* FROM session.testopportunity op where datechanged like '2016%' and testeeid = '405' order by testeeid; " with updated date and testeeid; and then using this query "call setopportunitystatus(0x965337CFC2D74770918C17519D92E129, 'expired', 0, null, null);" with replaced HEX
+4 Verify that test become expired in DB and in student interface student can only start next opportunity
+5 Use Reopen procedure</t>
+  </si>
+  <si>
+    <t>Verify that Extend opp expiration date can be applied only to expired, paused and started opportunities</t>
+  </si>
+  <si>
+    <t>1 Make sure that TDS DB have variety of opportunities in different statuses (paused, completed, reported…)
+2 Verify that search in TDSA for extend opportunity grace period will return only expired, paused and started opportunities</t>
+  </si>
+  <si>
+    <t>expirefrom should increment on number specified in TDSAdmin</t>
+  </si>
+  <si>
+    <t>Test should become paused not expired,
+expirefrom should increment on number specified in TDSAdmin</t>
+  </si>
+  <si>
+    <t>1 Find test that have 2 segments, and configure first segment to be not permeable
+2 Start taking a test as a student and pause it at the last question.
+3 Execute procedure to change permeability for current opportunity with parameter "segment"
+4 Log in as a same student and verify that he land on a last item of first segment</t>
+  </si>
+  <si>
+    <t>Student can go back and review/change responses for items in first segment until he will try to navigate to second segment. After that he should not be able to go back</t>
+  </si>
+  <si>
+    <t>1 Find test that have 2 segments, and configure first segment to be not permeable
+2 Start taking a test as a student and pause it at the last question.
+3 Execute procedure to change permeability for current opportunity with parameter "paused"
+4 Log in as a same student and verify that he land on a last item of first segment</t>
+  </si>
+  <si>
+    <t>Student can go back and review/change responses for items in first segment and answer items in second segment. Student should be able to review/change all items until he will pause a test</t>
+  </si>
+  <si>
+    <t>1 Find test that have 2 segments, and configure first segment to be not permeable
+2 Start taking a test as a student and pause it at the last question.
+3 Execute procedure to change permeability for current opportunity with parameter "completed"
+4 Log in as a same student and verify that he land on last item of first segment</t>
+  </si>
+  <si>
+    <t>1 Find test that have 2 segments, and configure first segment to be not permeable
+2 Start taking a test as a student and pause it at the last question.
+3 Execute procedure to change permeability for current opportunity with parameter "completed"
+4 Execute procedure to change permeability for current opportunity with parameter "completed" and "permeable" parameter as not selected
+5 Log in as a same student and verify that he land on last answered item</t>
+  </si>
+  <si>
+    <t>2 API return success, procedure is executed according to DB or TDS behavior
+3 Error message about missing parameters appear
+4 Error message about invalid token appear
+5 API failed with "no test opportunity matches the opportunity key input value [-----]" message
+6 Error "HTTP ERROR 400 : oppkey, requester, selectedsitting, and doupdate are required parameters. reason is accepted as an optional parameter. selectedsitting has range:&lt;0,99&gt; and doupdate accepts only true or 1" appear
+7 Error "{"status":"failed","reason":"invalid sitting selection [-----]","context":null,"oppKey":"invalid sitting selection"}" appear
+8 Error like in step 6 appear</t>
   </si>
 </sst>
 </file>
@@ -605,7 +851,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -621,9 +867,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -635,9 +878,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -661,6 +901,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>243839</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6418249</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>2446020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4975860" y="32301179"/>
+          <a:ext cx="6380149" cy="2202181"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -926,30 +1226,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.83203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="93.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="40.83203125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="4.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.77734375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="93.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="44.21875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -962,14 +1262,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0.1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -979,605 +1279,861 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>0.2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>130</v>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>13</v>
+      <c r="C6" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>14</v>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>15</v>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="5" customFormat="1" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="5" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="D32" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="5" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="5" customFormat="1" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="202.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="D49" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E50" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="D51" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="D53" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="6" customFormat="1" ht="76" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="6" customFormat="1" ht="46" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="6" customFormat="1" ht="91" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="6" customFormat="1" ht="121" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="90" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="120" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="6" customFormat="1" ht="91" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="105" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="6" customFormat="1" ht="61" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
-      <c r="B36" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="75" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="6" customFormat="1" ht="91" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
-      <c r="B40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="90" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>81</v>
+      <c r="D54" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>